--- a/DATA_goal/Junction_Flooding_451.xlsx
+++ b/DATA_goal/Junction_Flooding_451.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44782.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.09</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.59</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>72.33</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>1.4</v>
+        <v>14.02</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.95</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.32</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.13</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.65</v>
+        <v>26.53</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.72</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.16</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.11</v>
+        <v>101.13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.9</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.86</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.82</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.33</v>
+        <v>23.29</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.48</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.06</v>
+        <v>30.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.49</v>
+        <v>24.86</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.64</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.13</v>
+        <v>41.3</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.56</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.84</v>
+        <v>158.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.04</v>
+        <v>30.43</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.08</v>
+        <v>20.76</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.06</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.69</v>
+        <v>36.86</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_451.xlsx
+++ b/DATA_goal/Junction_Flooding_451.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.54861111111</v>
+        <v>45132.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.55555555555</v>
+        <v>45132.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.93</v>
+        <v>1.704</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.13</v>
+        <v>1.01</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.74</v>
+        <v>1.267</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.33</v>
+        <v>4.092</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.61</v>
+        <v>2.153</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.64</v>
+        <v>1.222</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.09</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.59</v>
+        <v>2.296</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.22</v>
+        <v>0.878</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.9</v>
+        <v>0.635</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.86</v>
+        <v>1.603</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.37</v>
+        <v>1.917</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.284</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.5</v>
+        <v>1.504</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.36</v>
+        <v>1.952</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.24</v>
+        <v>1.784</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.65</v>
+        <v>1.214</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.341</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.33</v>
+        <v>15.656</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.49</v>
+        <v>4.575</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.3</v>
+        <v>1.388</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.04</v>
+        <v>2.617</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.53</v>
+        <v>1.302</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.607</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>4.991</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.26</v>
+        <v>1.226</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.21</v>
+        <v>1.36</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.55</v>
+        <v>1.52</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.4</v>
+        <v>1.705</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.02</v>
+        <v>9.206</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.46</v>
+        <v>0.514</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.72</v>
+        <v>1.743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.5625</v>
+        <v>45132.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>12.808</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.95</v>
+        <v>9.473000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.62</v>
+        <v>1.183</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.32</v>
+        <v>28.182</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.13</v>
+        <v>22.464</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.75</v>
+        <v>10.003</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.53</v>
+        <v>35.281</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.72</v>
+        <v>15.677</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.65</v>
+        <v>6.888</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.03</v>
+        <v>9.891999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.96</v>
+        <v>11.292</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.16</v>
+        <v>12.112</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.29</v>
+        <v>3.092</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.6</v>
+        <v>10.151</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.15</v>
+        <v>14.244</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.86</v>
+        <v>8.795</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.906</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.544</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.13</v>
+        <v>147.148</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.9</v>
+        <v>28.216</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.86</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.65</v>
+        <v>18.686</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.34</v>
+        <v>9.872</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.93</v>
+        <v>1.584</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.82</v>
+        <v>17.893</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.81</v>
+        <v>8.276</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.74</v>
+        <v>7.454</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.12</v>
+        <v>8.733000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>11.878</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.29</v>
+        <v>31.776</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.55</v>
+        <v>5.148</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.01</v>
+        <v>11.714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.56944444445</v>
+        <v>45132.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.48</v>
+        <v>7.08</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.56</v>
+        <v>5.22</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.65</v>
+        <v>15.66</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.86</v>
+        <v>12.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.64</v>
+        <v>5.51</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.3</v>
+        <v>23.97</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.63</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.33</v>
+        <v>3.85</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.03</v>
+        <v>5.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.16</v>
+        <v>6.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.4</v>
+        <v>6.77</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.5</v>
+        <v>1.68</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.48</v>
+        <v>5.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.56</v>
+        <v>7.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.99</v>
+        <v>4.97</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.44</v>
+        <v>78.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.43</v>
+        <v>15.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.25</v>
+        <v>5.21</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.76</v>
+        <v>10.46</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11</v>
+        <v>5.47</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.43</v>
+        <v>0.92</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.06</v>
+        <v>11.73</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.52</v>
+        <v>4.19</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.27</v>
+        <v>4.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.9</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.86</v>
+        <v>22.03</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.58</v>
+        <v>2.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.75</v>
+        <v>6.51</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_451.xlsx
+++ b/DATA_goal/Junction_Flooding_451.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -452,9 +452,9 @@
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
@@ -463,9 +463,9 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -475,7 +475,7 @@
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45132.50694444445</v>
+        <v>44782.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.726</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.333</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.404</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.56</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.15</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.176</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.228</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.347</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.245</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.323</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.308999999999999</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.191</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.44</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.647</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.655</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.955</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.648</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.093</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.223</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.834</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.982</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.964</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.048999999999999</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.19</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.597</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.05</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.629</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.562</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.942</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.682</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.628</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.075</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.978</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45132.51388888889</v>
+        <v>44782.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.704</v>
+        <v>7.927</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.01</v>
+        <v>5.126</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.267</v>
+        <v>0.741</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.092</v>
+        <v>15.333</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.153</v>
+        <v>11.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.222</v>
+        <v>4.64</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.407999999999999</v>
+        <v>17.087</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.296</v>
+        <v>7.594</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.878</v>
+        <v>3.216</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.635</v>
+        <v>4.904</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.603</v>
+        <v>5.855</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.917</v>
+        <v>7.367</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.284</v>
+        <v>1.681</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.504</v>
+        <v>4.496</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.952</v>
+        <v>7.361</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.784</v>
+        <v>4.241</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.214</v>
+        <v>0.649</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.341</v>
+        <v>0.057</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.656</v>
+        <v>72.33499999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.575</v>
+        <v>14.49</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.388</v>
+        <v>5.296</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.617</v>
+        <v>10.037</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.302</v>
+        <v>5.53</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.607</v>
+        <v>0.681</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.991</v>
+        <v>8.113</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.226</v>
+        <v>4.256</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.36</v>
+        <v>3.212</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.52</v>
+        <v>4.553</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.705</v>
+        <v>6.404</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.136</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.206</v>
+        <v>14.017</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.514</v>
+        <v>2.464</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.743</v>
+        <v>5.716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45132.52083333334</v>
+        <v>44782.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.808</v>
+        <v>9.877000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.473000000000001</v>
+        <v>6.953</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.183</v>
+        <v>0.62</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.182</v>
+        <v>20.316</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.464</v>
+        <v>16.134</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.003</v>
+        <v>6.747</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>35.281</v>
+        <v>26.527</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.677</v>
+        <v>10.717</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.888</v>
+        <v>4.654</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.891999999999999</v>
+        <v>7.034</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.292</v>
+        <v>7.963</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.112</v>
+        <v>9.159000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.092</v>
+        <v>2.291</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.151</v>
+        <v>6.602</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.244</v>
+        <v>10.154</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.795</v>
+        <v>5.857</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.906</v>
+        <v>0.476</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.544</v>
+        <v>0.144</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>147.148</v>
+        <v>101.132</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.216</v>
+        <v>19.903</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>6.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.686</v>
+        <v>13.654</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.872</v>
+        <v>7.342</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.584</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.893</v>
+        <v>12.815</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.276</v>
+        <v>5.81</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.454</v>
+        <v>4.736</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.733000000000001</v>
+        <v>6.117</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.878</v>
+        <v>8.534000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.722</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.776</v>
+        <v>23.289</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.148</v>
+        <v>3.552</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.714</v>
+        <v>8.010999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45132.52777777778</v>
+        <v>44782.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.08</v>
+        <v>14.476</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.22</v>
+        <v>10.558</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.66</v>
+        <v>30.649</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.31</v>
+        <v>24.86</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.51</v>
+        <v>10.637</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.97</v>
+        <v>41.297</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>16.632</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.85</v>
+        <v>7.333</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.36</v>
+        <v>11.027</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.27</v>
+        <v>12.159</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.77</v>
+        <v>13.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.68</v>
+        <v>3.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.64</v>
+        <v>10.482</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.91</v>
+        <v>15.561</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.97</v>
+        <v>8.994</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.304</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.52</v>
+        <v>158.437</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.88</v>
+        <v>30.432</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.21</v>
+        <v>10.253</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.46</v>
+        <v>20.756</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.47</v>
+        <v>10.997</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.92</v>
+        <v>1.427</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.73</v>
+        <v>20.063</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.6</v>
+        <v>8.882</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.19</v>
+        <v>7.519</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.89</v>
+        <v>9.268000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.6</v>
+        <v>12.903</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.118</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>22.03</v>
+        <v>36.864</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.82</v>
+        <v>5.581</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.51</v>
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_451.xlsx
+++ b/DATA_goal/Junction_Flooding_451.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -452,9 +452,9 @@
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
@@ -463,9 +463,9 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -475,7 +475,7 @@
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.54861111111</v>
+        <v>45132.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.55555555555</v>
+        <v>45132.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.927</v>
+        <v>1.704</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.126</v>
+        <v>1.01</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.741</v>
+        <v>1.267</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.333</v>
+        <v>4.092</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.61</v>
+        <v>2.153</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.64</v>
+        <v>1.222</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.087</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.594</v>
+        <v>2.296</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.216</v>
+        <v>0.878</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.904</v>
+        <v>0.635</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.855</v>
+        <v>1.603</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.367</v>
+        <v>1.917</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.681</v>
+        <v>0.284</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.496</v>
+        <v>1.504</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.361</v>
+        <v>1.952</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.241</v>
+        <v>1.784</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.649</v>
+        <v>1.214</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.057</v>
+        <v>0.341</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.33499999999999</v>
+        <v>15.656</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.49</v>
+        <v>4.575</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.296</v>
+        <v>1.388</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.037</v>
+        <v>2.617</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.53</v>
+        <v>1.302</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.681</v>
+        <v>0.607</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.113</v>
+        <v>4.991</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.256</v>
+        <v>1.226</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.212</v>
+        <v>1.36</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.553</v>
+        <v>1.52</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.404</v>
+        <v>1.705</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.173</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.017</v>
+        <v>9.206</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.464</v>
+        <v>0.514</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.716</v>
+        <v>1.743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.5625</v>
+        <v>45132.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.877000000000001</v>
+        <v>12.808</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.953</v>
+        <v>9.473000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.62</v>
+        <v>1.183</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.316</v>
+        <v>28.182</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.134</v>
+        <v>22.464</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.747</v>
+        <v>10.003</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.527</v>
+        <v>35.281</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.717</v>
+        <v>15.677</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.654</v>
+        <v>6.888</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.034</v>
+        <v>9.891999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.963</v>
+        <v>11.292</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.159000000000001</v>
+        <v>12.112</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.291</v>
+        <v>3.092</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.602</v>
+        <v>10.151</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.154</v>
+        <v>14.244</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.857</v>
+        <v>8.795</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.476</v>
+        <v>0.906</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.144</v>
+        <v>0.544</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.132</v>
+        <v>147.148</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.903</v>
+        <v>28.216</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.858</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.654</v>
+        <v>18.686</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.342</v>
+        <v>9.872</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9330000000000001</v>
+        <v>1.584</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.815</v>
+        <v>17.893</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.81</v>
+        <v>8.276</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.736</v>
+        <v>7.454</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.117</v>
+        <v>8.733000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.534000000000001</v>
+        <v>11.878</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.141</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.289</v>
+        <v>31.776</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.552</v>
+        <v>5.148</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.010999999999999</v>
+        <v>11.714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.56944444445</v>
+        <v>45132.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.476</v>
+        <v>7.08</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.558</v>
+        <v>5.22</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.649</v>
+        <v>15.66</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.86</v>
+        <v>12.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.637</v>
+        <v>5.51</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.297</v>
+        <v>23.97</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.632</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.333</v>
+        <v>3.85</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.027</v>
+        <v>5.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.159</v>
+        <v>6.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.4</v>
+        <v>6.77</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.5</v>
+        <v>1.68</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.482</v>
+        <v>5.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.561</v>
+        <v>7.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.994</v>
+        <v>4.97</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.304</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.437</v>
+        <v>78.52</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.432</v>
+        <v>15.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.253</v>
+        <v>5.21</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.756</v>
+        <v>10.46</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.997</v>
+        <v>5.47</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.427</v>
+        <v>0.92</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.063</v>
+        <v>11.73</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.882</v>
+        <v>4.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.519</v>
+        <v>4.19</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.268000000000001</v>
+        <v>4.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.903</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.864</v>
+        <v>22.03</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.581</v>
+        <v>2.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.75</v>
+        <v>6.51</v>
       </c>
     </row>
   </sheetData>
